--- a/spliced/struggle/2023-04-06_18-06-23/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-06_18-06-23/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,221 +452,331 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.1584005355834961</v>
+        <v>-0.1118526458740234</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0559865832328796</v>
+        <v>0.0269185900688171</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2031860947608947</v>
+        <v>0.0618541836738586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1681756973266601</v>
+        <v>-0.188694953918457</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.045459896326065</v>
+        <v>-0.0127399563789367</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3079473972320556</v>
+        <v>0.0153613984584808</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7375173568725586</v>
+        <v>-0.0261173248291015</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.8549392819404602</v>
+        <v>-0.1474769711494445</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.997310400009156</v>
+        <v>0.0655251443386077</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.6316938400268555</v>
+        <v>-0.1960973739624023</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0533061251044273</v>
+        <v>0.0549294650554657</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.823783159255981</v>
+        <v>0.0360765755176544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1245284080505371</v>
+        <v>-0.06610202789306641</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4134435057640075</v>
+        <v>-0.1787786185741424</v>
       </c>
       <c r="C6" t="n">
-        <v>2.055456638336182</v>
+        <v>0.0745508223772049</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.905292510986328</v>
+        <v>0.0234136581420898</v>
       </c>
       <c r="B7" t="n">
-        <v>1.267569422721863</v>
+        <v>0.0270741879940032</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3008813858032226</v>
+        <v>0.2239813506603241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.353589773178101</v>
+        <v>0.11651611328125</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5766786336898804</v>
+        <v>-0.4856438636779785</v>
       </c>
       <c r="C8" t="n">
-        <v>2.404436111450196</v>
+        <v>0.5658785104751587</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-11.09067344665527</v>
+        <v>0.0557413101196289</v>
       </c>
       <c r="B9" t="n">
-        <v>1.405970811843872</v>
+        <v>0.3574482798576355</v>
       </c>
       <c r="C9" t="n">
-        <v>10.02403450012207</v>
+        <v>0.2321825623512268</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.286171913146973</v>
+        <v>0.3619680404663086</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2758489847183227</v>
+        <v>0.0124948024749755</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.509784698486328</v>
+        <v>0.3587799966335296</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-1.000519752502441</v>
+        <v>-0.2529764175415039</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.010628342628479</v>
+        <v>0.1160029470920562</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.670511245727539</v>
+        <v>-0.09882223606109609</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.810617446899414</v>
+        <v>-0.1584005355834961</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8466755151748657</v>
+        <v>0.0559865832328796</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6261429786682129</v>
+        <v>-0.2031860947608947</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.552617073059082</v>
+        <v>-0.1681756973266601</v>
       </c>
       <c r="B13" t="n">
-        <v>1.007189750671387</v>
+        <v>-0.045459896326065</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.683732509613037</v>
+        <v>0.3079473972320556</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.832679748535156</v>
+        <v>0.7375173568725586</v>
       </c>
       <c r="B14" t="n">
-        <v>5.107204437255859</v>
+        <v>-0.8549392819404602</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.522222995758057</v>
+        <v>-2.997310400009156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8469958305358887</v>
+        <v>-0.6316938400268555</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.08077871799469</v>
+        <v>0.0533061251044273</v>
       </c>
       <c r="C15" t="n">
-        <v>7.442714691162109</v>
+        <v>-1.823783159255981</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-3.03963303565979</v>
+        <v>0.1245284080505371</v>
       </c>
       <c r="B16" t="n">
-        <v>1.802032470703125</v>
+        <v>0.4134435057640075</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.227274417877197</v>
+        <v>2.055456638336182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.961796522140503</v>
+        <v>-1.905292510986328</v>
       </c>
       <c r="B17" t="n">
-        <v>1.68219518661499</v>
+        <v>1.267569422721863</v>
       </c>
       <c r="C17" t="n">
-        <v>1.394426345825195</v>
+        <v>0.3008813858032226</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-2.372189998626709</v>
+        <v>-2.353589773178101</v>
       </c>
       <c r="B18" t="n">
-        <v>1.225671410560608</v>
+        <v>0.5766786336898804</v>
       </c>
       <c r="C18" t="n">
-        <v>2.504203796386719</v>
+        <v>2.404436111450196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-8.473310470581055</v>
+        <v>-11.09067344665527</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.7327957153320312</v>
+        <v>1.405970811843872</v>
       </c>
       <c r="C19" t="n">
-        <v>5.200639724731445</v>
+        <v>10.02403450012207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.173869132995605</v>
+        <v>4.286171913146973</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.535699486732483</v>
+        <v>0.2758489847183227</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.114311695098877</v>
+        <v>-4.509784698486328</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-1.000519752502441</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.010628342628479</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.670511245727539</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-2.810617446899414</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8466755151748657</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.6261429786682129</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.552617073059082</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.007189750671387</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.683732509613037</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-2.832679748535156</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5.107204437255859</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.522222995758057</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.8469958305358887</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.08077871799469</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.442714691162109</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-3.03963303565979</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.802032470703125</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.227274417877197</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.961796522140503</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.68219518661499</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.394426345825195</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-2.372189998626709</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.225671410560608</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.504203796386719</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-8.473310470581055</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.7327957153320312</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5.200639724731445</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.173869132995605</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.535699486732483</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-6.114311695098877</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
         <v>-4.002721786499023</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B31" t="n">
         <v>1.022015571594239</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C31" t="n">
         <v>-0.0432633161544799</v>
       </c>
     </row>
